--- a/document/テスト仕様書_Ver.1.00.xlsx
+++ b/document/テスト仕様書_Ver.1.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15480" windowHeight="9345" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15480" windowHeight="9350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="249">
   <si>
     <t>第</t>
     <rPh sb="0" eb="1">
@@ -1604,6 +1604,23 @@
     <t>宛先がグループアドレスの場合、グループ名が表示される</t>
     <rPh sb="19" eb="20">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中西 悠菜</t>
+    <rPh sb="0" eb="2">
+      <t>ナカニシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2418,7 +2435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2897,6 +2914,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="25" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3504,29 +3524,29 @@
       <selection activeCell="AB22" sqref="AB22:AD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.08984375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="30" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="30" width="4.08984375" style="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="4.125" style="1"/>
+    <col min="32" max="16384" width="4.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD8" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD9" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD10" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AA12" s="4" t="s">
         <v>0</v>
       </c>
@@ -3538,17 +3558,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB13" s="4"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="6"/>
     </row>
-    <row r="14" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB14" s="4"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="6"/>
     </row>
-    <row r="15" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3566,7 +3586,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3584,7 +3604,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3602,7 +3622,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3620,7 +3640,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3638,7 +3658,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3656,7 +3676,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3689,7 +3709,7 @@
       <c r="AC21" s="47"/>
       <c r="AD21" s="48"/>
     </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3724,7 +3744,7 @@
       <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
     </row>
-    <row r="23" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3754,7 +3774,7 @@
       </c>
       <c r="AD23" s="34"/>
     </row>
-    <row r="24" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3783,7 +3803,7 @@
       <c r="AC24" s="36"/>
       <c r="AD24" s="37"/>
     </row>
-    <row r="25" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3812,7 +3832,7 @@
       <c r="AC25" s="39"/>
       <c r="AD25" s="40"/>
     </row>
-    <row r="26" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3841,12 +3861,12 @@
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
     </row>
-    <row r="27" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD27" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD28" s="14"/>
     </row>
   </sheetData>
@@ -3865,7 +3885,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.51181102362204722" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -3881,16 +3901,16 @@
   <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+      <selection activeCell="AC8" sqref="A8:AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.08984375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="32" width="4.125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="4.125" style="1"/>
+    <col min="1" max="32" width="4.08984375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="4.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="str">
         <f>表紙!$AD$8</f>
         <v>Office365展開</v>
@@ -3932,7 +3952,7 @@
       <c r="AE1" s="62"/>
       <c r="AF1" s="62"/>
     </row>
-    <row r="2" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="67" t="str">
         <f>表紙!$AD$9</f>
         <v>Outlook宛先表示アドイン</v>
@@ -3970,12 +3990,13 @@
       </c>
       <c r="AC2" s="70"/>
       <c r="AD2" s="71">
+        <f>MAX(A7:D26)</f>
         <v>43094</v>
       </c>
       <c r="AE2" s="71"/>
       <c r="AF2" s="72"/>
     </row>
-    <row r="3" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -4009,7 +4030,7 @@
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
     </row>
-    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
         <v>172</v>
       </c>
@@ -4050,7 +4071,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -4089,7 +4110,7 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>3</v>
       </c>
@@ -4131,7 +4152,7 @@
       <c r="AE6" s="56"/>
       <c r="AF6" s="57"/>
     </row>
-    <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52">
         <v>43094</v>
       </c>
@@ -4173,7 +4194,7 @@
       <c r="AE7" s="50"/>
       <c r="AF7" s="51"/>
     </row>
-    <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
@@ -4207,7 +4228,7 @@
       <c r="AE8" s="50"/>
       <c r="AF8" s="51"/>
     </row>
-    <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
@@ -4241,7 +4262,7 @@
       <c r="AE9" s="50"/>
       <c r="AF9" s="51"/>
     </row>
-    <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
@@ -4275,7 +4296,7 @@
       <c r="AE10" s="50"/>
       <c r="AF10" s="51"/>
     </row>
-    <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
@@ -4309,7 +4330,7 @@
       <c r="AE11" s="50"/>
       <c r="AF11" s="51"/>
     </row>
-    <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
@@ -4343,7 +4364,7 @@
       <c r="AE12" s="50"/>
       <c r="AF12" s="51"/>
     </row>
-    <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -4377,7 +4398,7 @@
       <c r="AE13" s="50"/>
       <c r="AF13" s="51"/>
     </row>
-    <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
@@ -4411,7 +4432,7 @@
       <c r="AE14" s="50"/>
       <c r="AF14" s="51"/>
     </row>
-    <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
@@ -4445,7 +4466,7 @@
       <c r="AE15" s="50"/>
       <c r="AF15" s="51"/>
     </row>
-    <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
@@ -4479,7 +4500,7 @@
       <c r="AE16" s="50"/>
       <c r="AF16" s="51"/>
     </row>
-    <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
@@ -4513,7 +4534,7 @@
       <c r="AE17" s="50"/>
       <c r="AF17" s="51"/>
     </row>
-    <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
@@ -4547,7 +4568,7 @@
       <c r="AE18" s="50"/>
       <c r="AF18" s="51"/>
     </row>
-    <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
@@ -4581,7 +4602,7 @@
       <c r="AE19" s="50"/>
       <c r="AF19" s="51"/>
     </row>
-    <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -4615,7 +4636,7 @@
       <c r="AE20" s="50"/>
       <c r="AF20" s="51"/>
     </row>
-    <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52"/>
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
@@ -4649,7 +4670,7 @@
       <c r="AE21" s="50"/>
       <c r="AF21" s="51"/>
     </row>
-    <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -4683,7 +4704,7 @@
       <c r="AE22" s="50"/>
       <c r="AF22" s="51"/>
     </row>
-    <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52"/>
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
@@ -4717,7 +4738,7 @@
       <c r="AE23" s="50"/>
       <c r="AF23" s="51"/>
     </row>
-    <row r="24" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
@@ -4751,7 +4772,7 @@
       <c r="AE24" s="50"/>
       <c r="AF24" s="51"/>
     </row>
-    <row r="25" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -4785,7 +4806,7 @@
       <c r="AE25" s="50"/>
       <c r="AF25" s="51"/>
     </row>
-    <row r="26" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52"/>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
@@ -4917,7 +4938,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -4932,12 +4953,12 @@
       <selection activeCell="H14" sqref="H14:AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.125" style="2"/>
+    <col min="1" max="16384" width="4.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="str">
         <f>表紙!$AD$8</f>
         <v>Office365展開</v>
@@ -4978,7 +4999,7 @@
       <c r="AC1" s="85"/>
       <c r="AD1" s="86"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="84" t="str">
         <f>表紙!$AD$9</f>
         <v>Outlook宛先表示アドイン</v>
@@ -5020,7 +5041,7 @@
       <c r="AC2" s="71"/>
       <c r="AD2" s="72"/>
     </row>
-    <row r="4" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -5052,7 +5073,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -5085,7 +5106,7 @@
       <c r="AC5" s="22"/>
       <c r="AD5" s="23"/>
     </row>
-    <row r="6" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
         <v>55</v>
@@ -5116,7 +5137,7 @@
       <c r="AC6" s="25"/>
       <c r="AD6" s="25"/>
     </row>
-    <row r="7" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="D7" s="19" t="str">
         <f>""&amp;表紙!AD9&amp;"のシステムテストにおけるテスト仕様を明確にし、システムテストのための共通基盤とする事。"</f>
@@ -5147,7 +5168,7 @@
       <c r="AC7" s="25"/>
       <c r="AD7" s="25"/>
     </row>
-    <row r="8" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -5174,7 +5195,7 @@
       <c r="AC8" s="25"/>
       <c r="AD8" s="25"/>
     </row>
-    <row r="9" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
@@ -5207,7 +5228,7 @@
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
     </row>
-    <row r="10" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="D10" s="19" t="s">
@@ -5239,7 +5260,7 @@
       <c r="AC10" s="24"/>
       <c r="AD10" s="24"/>
     </row>
-    <row r="11" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="E11" s="24"/>
@@ -5268,7 +5289,7 @@
       <c r="AC11" s="24"/>
       <c r="AD11" s="24"/>
     </row>
-    <row r="12" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
@@ -5301,7 +5322,7 @@
       <c r="AC12" s="24"/>
       <c r="AD12" s="24"/>
     </row>
-    <row r="13" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -5336,7 +5357,7 @@
       <c r="AB13" s="57"/>
       <c r="AD13" s="24"/>
     </row>
-    <row r="14" spans="1:30" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -5371,7 +5392,7 @@
       <c r="AB14" s="80"/>
       <c r="AD14" s="24"/>
     </row>
-    <row r="15" spans="1:30" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -5407,7 +5428,7 @@
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
     </row>
-    <row r="16" spans="1:30" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -5443,7 +5464,7 @@
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
     </row>
-    <row r="17" spans="1:30" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:30" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -5479,7 +5500,7 @@
       <c r="AC17" s="26"/>
       <c r="AD17" s="26"/>
     </row>
-    <row r="18" spans="1:30" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -5515,7 +5536,7 @@
       <c r="AC18" s="26"/>
       <c r="AD18" s="26"/>
     </row>
-    <row r="19" spans="1:30" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -5551,7 +5572,7 @@
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
     </row>
-    <row r="20" spans="1:30" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -5587,7 +5608,7 @@
       <c r="AC20" s="26"/>
       <c r="AD20" s="26"/>
     </row>
-    <row r="21" spans="1:30" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -5623,7 +5644,7 @@
       <c r="AC21" s="26"/>
       <c r="AD21" s="26"/>
     </row>
-    <row r="22" spans="1:30" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -5659,7 +5680,7 @@
       <c r="AC22" s="26"/>
       <c r="AD22" s="26"/>
     </row>
-    <row r="23" spans="1:30" s="19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:30" s="19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -5695,7 +5716,7 @@
       <c r="AC23" s="26"/>
       <c r="AD23" s="26"/>
     </row>
-    <row r="24" spans="1:30" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:30" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -5731,7 +5752,7 @@
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
     </row>
-    <row r="25" spans="1:30" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:30" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -5767,7 +5788,7 @@
       <c r="AC25" s="26"/>
       <c r="AD25" s="26"/>
     </row>
-    <row r="26" spans="1:30" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:30" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -5803,7 +5824,7 @@
       <c r="AC26" s="26"/>
       <c r="AD26" s="26"/>
     </row>
-    <row r="27" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -5839,7 +5860,7 @@
       <c r="AC27" s="26"/>
       <c r="AD27" s="26"/>
     </row>
-    <row r="28" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -5875,7 +5896,7 @@
       <c r="AC28" s="26"/>
       <c r="AD28" s="26"/>
     </row>
-    <row r="29" spans="1:30" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -5911,7 +5932,7 @@
       <c r="AC29" s="26"/>
       <c r="AD29" s="26"/>
     </row>
-    <row r="30" spans="1:30" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:30" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -5947,7 +5968,7 @@
       <c r="AC30" s="26"/>
       <c r="AD30" s="26"/>
     </row>
-    <row r="31" spans="1:30" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:30" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -5983,7 +6004,7 @@
       <c r="AC31" s="26"/>
       <c r="AD31" s="26"/>
     </row>
-    <row r="32" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -6019,7 +6040,7 @@
       <c r="AC32" s="26"/>
       <c r="AD32" s="26"/>
     </row>
-    <row r="33" spans="1:30" s="19" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:30" s="19" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -6055,7 +6076,7 @@
       <c r="AC33" s="26"/>
       <c r="AD33" s="26"/>
     </row>
-    <row r="34" spans="1:30" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:30" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -6091,7 +6112,7 @@
       <c r="AC34" s="26"/>
       <c r="AD34" s="26"/>
     </row>
-    <row r="35" spans="1:30" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:30" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -6127,7 +6148,7 @@
       <c r="AC35" s="26"/>
       <c r="AD35" s="26"/>
     </row>
-    <row r="36" spans="1:30" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:30" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -6163,7 +6184,7 @@
       <c r="AC36" s="26"/>
       <c r="AD36" s="26"/>
     </row>
-    <row r="37" spans="1:30" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:30" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -6199,7 +6220,7 @@
       <c r="AC37" s="26"/>
       <c r="AD37" s="26"/>
     </row>
-    <row r="38" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -6235,7 +6256,7 @@
       <c r="AC38" s="26"/>
       <c r="AD38" s="26"/>
     </row>
-    <row r="39" spans="1:30" s="19" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:30" s="19" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -6271,7 +6292,7 @@
       <c r="AC39" s="26"/>
       <c r="AD39" s="26"/>
     </row>
-    <row r="40" spans="1:30" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:30" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -6307,7 +6328,7 @@
       <c r="AC40" s="26"/>
       <c r="AD40" s="26"/>
     </row>
-    <row r="41" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -6338,7 +6359,7 @@
       <c r="AC41" s="24"/>
       <c r="AD41" s="24"/>
     </row>
-    <row r="42" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24" t="s">
@@ -6371,7 +6392,7 @@
       <c r="AC42" s="24"/>
       <c r="AD42" s="24"/>
     </row>
-    <row r="43" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -6404,7 +6425,7 @@
       <c r="AC43" s="24"/>
       <c r="AD43" s="24"/>
     </row>
-    <row r="44" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -6437,7 +6458,7 @@
       <c r="AC44" s="24"/>
       <c r="AD44" s="24"/>
     </row>
-    <row r="45" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
@@ -6464,7 +6485,7 @@
       <c r="AB45" s="24"/>
       <c r="AC45" s="24"/>
     </row>
-    <row r="46" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
@@ -6578,12 +6599,12 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.125" style="2"/>
+    <col min="1" max="16384" width="4.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="str">
         <f>表紙!$AD$8</f>
         <v>Office365展開</v>
@@ -6624,7 +6645,7 @@
       <c r="AC1" s="93"/>
       <c r="AD1" s="93"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="93" t="str">
         <f>表紙!$AD$9</f>
         <v>Outlook宛先表示アドイン</v>
@@ -6667,7 +6688,7 @@
       <c r="AC2" s="71"/>
       <c r="AD2" s="72"/>
     </row>
-    <row r="4" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
@@ -6694,15 +6715,15 @@
       <c r="AB4" s="24"/>
       <c r="AC4" s="24"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
         <v>62</v>
       </c>
@@ -6738,7 +6759,7 @@
       <c r="Z18" s="96"/>
       <c r="AA18" s="96"/>
     </row>
-    <row r="19" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="107">
         <v>1</v>
       </c>
@@ -6774,7 +6795,7 @@
       <c r="Z19" s="98"/>
       <c r="AA19" s="99"/>
     </row>
-    <row r="20" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="107"/>
       <c r="C20" s="106"/>
       <c r="D20" s="106"/>
@@ -6802,7 +6823,7 @@
       <c r="Z20" s="101"/>
       <c r="AA20" s="102"/>
     </row>
-    <row r="21" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="107"/>
       <c r="C21" s="106"/>
       <c r="D21" s="106"/>
@@ -6830,7 +6851,7 @@
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
     </row>
-    <row r="22" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="107"/>
       <c r="C22" s="106"/>
       <c r="D22" s="106"/>
@@ -6858,7 +6879,7 @@
       <c r="Z22" s="101"/>
       <c r="AA22" s="102"/>
     </row>
-    <row r="23" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="107"/>
       <c r="C23" s="106"/>
       <c r="D23" s="106"/>
@@ -6886,7 +6907,7 @@
       <c r="Z23" s="104"/>
       <c r="AA23" s="105"/>
     </row>
-    <row r="24" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="107">
         <v>2</v>
       </c>
@@ -6922,7 +6943,7 @@
       <c r="Z24" s="98"/>
       <c r="AA24" s="99"/>
     </row>
-    <row r="25" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="107"/>
       <c r="C25" s="106"/>
       <c r="D25" s="106"/>
@@ -6950,7 +6971,7 @@
       <c r="Z25" s="104"/>
       <c r="AA25" s="105"/>
     </row>
-    <row r="26" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="107">
         <v>3</v>
       </c>
@@ -6986,7 +7007,7 @@
       <c r="Z26" s="98"/>
       <c r="AA26" s="99"/>
     </row>
-    <row r="27" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="107"/>
       <c r="C27" s="106"/>
       <c r="D27" s="106"/>
@@ -7014,7 +7035,7 @@
       <c r="Z27" s="101"/>
       <c r="AA27" s="102"/>
     </row>
-    <row r="28" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="107"/>
       <c r="C28" s="106"/>
       <c r="D28" s="106"/>
@@ -7042,7 +7063,7 @@
       <c r="Z28" s="101"/>
       <c r="AA28" s="102"/>
     </row>
-    <row r="29" spans="2:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="107"/>
       <c r="C29" s="106"/>
       <c r="D29" s="106"/>
@@ -7070,7 +7091,7 @@
       <c r="Z29" s="104"/>
       <c r="AA29" s="105"/>
     </row>
-    <row r="30" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="29">
         <v>4</v>
       </c>
@@ -7106,7 +7127,7 @@
       <c r="Z30" s="106"/>
       <c r="AA30" s="106"/>
     </row>
-    <row r="31" spans="2:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107">
         <v>5</v>
       </c>
@@ -7140,7 +7161,7 @@
       <c r="Z31" s="106"/>
       <c r="AA31" s="106"/>
     </row>
-    <row r="32" spans="2:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107"/>
       <c r="C32" s="106"/>
       <c r="D32" s="106"/>
@@ -7170,7 +7191,7 @@
       <c r="Z32" s="106"/>
       <c r="AA32" s="106"/>
     </row>
-    <row r="33" spans="2:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="29">
         <v>6</v>
       </c>
@@ -7204,7 +7225,7 @@
       <c r="Z33" s="106"/>
       <c r="AA33" s="106"/>
     </row>
-    <row r="34" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107">
         <v>7</v>
       </c>
@@ -7238,7 +7259,7 @@
       <c r="Z34" s="98"/>
       <c r="AA34" s="99"/>
     </row>
-    <row r="35" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="107"/>
       <c r="C35" s="106"/>
       <c r="D35" s="106"/>
@@ -7266,7 +7287,7 @@
       <c r="Z35" s="101"/>
       <c r="AA35" s="102"/>
     </row>
-    <row r="36" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="107"/>
       <c r="C36" s="106"/>
       <c r="D36" s="106"/>
@@ -7294,7 +7315,7 @@
       <c r="Z36" s="101"/>
       <c r="AA36" s="102"/>
     </row>
-    <row r="37" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="107"/>
       <c r="C37" s="106"/>
       <c r="D37" s="106"/>
@@ -7322,7 +7343,7 @@
       <c r="Z37" s="101"/>
       <c r="AA37" s="102"/>
     </row>
-    <row r="38" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="107"/>
       <c r="C38" s="106"/>
       <c r="D38" s="106"/>
@@ -7350,7 +7371,7 @@
       <c r="Z38" s="101"/>
       <c r="AA38" s="102"/>
     </row>
-    <row r="39" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="107"/>
       <c r="C39" s="106"/>
       <c r="D39" s="106"/>
@@ -7378,7 +7399,7 @@
       <c r="Z39" s="101"/>
       <c r="AA39" s="102"/>
     </row>
-    <row r="40" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="107"/>
       <c r="C40" s="106"/>
       <c r="D40" s="106"/>
@@ -7406,7 +7427,7 @@
       <c r="Z40" s="101"/>
       <c r="AA40" s="102"/>
     </row>
-    <row r="41" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="107"/>
       <c r="C41" s="106"/>
       <c r="D41" s="106"/>
@@ -7434,7 +7455,7 @@
       <c r="Z41" s="101"/>
       <c r="AA41" s="102"/>
     </row>
-    <row r="42" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="107"/>
       <c r="C42" s="106"/>
       <c r="D42" s="106"/>
@@ -7462,7 +7483,7 @@
       <c r="Z42" s="101"/>
       <c r="AA42" s="102"/>
     </row>
-    <row r="43" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="107"/>
       <c r="C43" s="106"/>
       <c r="D43" s="106"/>
@@ -7490,7 +7511,7 @@
       <c r="Z43" s="101"/>
       <c r="AA43" s="102"/>
     </row>
-    <row r="44" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="107"/>
       <c r="C44" s="106"/>
       <c r="D44" s="106"/>
@@ -7518,7 +7539,7 @@
       <c r="Z44" s="101"/>
       <c r="AA44" s="102"/>
     </row>
-    <row r="45" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="107"/>
       <c r="C45" s="106"/>
       <c r="D45" s="106"/>
@@ -7546,7 +7567,7 @@
       <c r="Z45" s="104"/>
       <c r="AA45" s="105"/>
     </row>
-    <row r="46" spans="2:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:27" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="29">
         <v>8</v>
       </c>
@@ -7580,7 +7601,7 @@
       <c r="Z46" s="98"/>
       <c r="AA46" s="99"/>
     </row>
-    <row r="47" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="29">
         <v>9</v>
       </c>
@@ -7614,7 +7635,7 @@
       <c r="Z47" s="98"/>
       <c r="AA47" s="99"/>
     </row>
-    <row r="48" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="29">
         <v>10</v>
       </c>
@@ -7648,7 +7669,7 @@
       <c r="Z48" s="106"/>
       <c r="AA48" s="106"/>
     </row>
-    <row r="49" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="29">
         <v>11</v>
       </c>
@@ -7682,7 +7703,7 @@
       <c r="Z49" s="106"/>
       <c r="AA49" s="106"/>
     </row>
-    <row r="50" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="107">
         <v>12</v>
       </c>
@@ -7716,7 +7737,7 @@
       <c r="Z50" s="98"/>
       <c r="AA50" s="99"/>
     </row>
-    <row r="51" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="107"/>
       <c r="C51" s="103"/>
       <c r="D51" s="104"/>
@@ -7744,7 +7765,7 @@
       <c r="Z51" s="104"/>
       <c r="AA51" s="105"/>
     </row>
-    <row r="52" spans="2:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="29">
         <v>13</v>
       </c>
@@ -7780,7 +7801,7 @@
       <c r="Z52" s="106"/>
       <c r="AA52" s="106"/>
     </row>
-    <row r="53" spans="2:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="29">
         <v>14</v>
       </c>
@@ -7816,7 +7837,7 @@
       <c r="Z53" s="106"/>
       <c r="AA53" s="106"/>
     </row>
-    <row r="54" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="107">
         <v>15</v>
       </c>
@@ -7850,7 +7871,7 @@
       <c r="Z54" s="98"/>
       <c r="AA54" s="99"/>
     </row>
-    <row r="55" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="107"/>
       <c r="C55" s="106"/>
       <c r="D55" s="106"/>
@@ -7878,7 +7899,7 @@
       <c r="Z55" s="101"/>
       <c r="AA55" s="102"/>
     </row>
-    <row r="56" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="107"/>
       <c r="C56" s="106"/>
       <c r="D56" s="106"/>
@@ -7906,7 +7927,7 @@
       <c r="Z56" s="101"/>
       <c r="AA56" s="102"/>
     </row>
-    <row r="57" spans="2:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="107"/>
       <c r="C57" s="106"/>
       <c r="D57" s="106"/>
@@ -7934,7 +7955,7 @@
       <c r="Z57" s="104"/>
       <c r="AA57" s="105"/>
     </row>
-    <row r="58" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107">
         <v>16</v>
       </c>
@@ -7968,7 +7989,7 @@
       <c r="Z58" s="98"/>
       <c r="AA58" s="99"/>
     </row>
-    <row r="59" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107"/>
       <c r="C59" s="106"/>
       <c r="D59" s="106"/>
@@ -7996,7 +8017,7 @@
       <c r="Z59" s="101"/>
       <c r="AA59" s="102"/>
     </row>
-    <row r="60" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107"/>
       <c r="C60" s="106"/>
       <c r="D60" s="106"/>
@@ -8024,7 +8045,7 @@
       <c r="Z60" s="101"/>
       <c r="AA60" s="102"/>
     </row>
-    <row r="61" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107"/>
       <c r="C61" s="106"/>
       <c r="D61" s="106"/>
@@ -8052,7 +8073,7 @@
       <c r="Z61" s="104"/>
       <c r="AA61" s="105"/>
     </row>
-    <row r="62" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="107">
         <v>17</v>
       </c>
@@ -8086,7 +8107,7 @@
       <c r="Z62" s="110"/>
       <c r="AA62" s="111"/>
     </row>
-    <row r="63" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="107"/>
       <c r="C63" s="106"/>
       <c r="D63" s="106"/>
@@ -8114,7 +8135,7 @@
       <c r="Z63" s="113"/>
       <c r="AA63" s="114"/>
     </row>
-    <row r="64" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="107"/>
       <c r="C64" s="106"/>
       <c r="D64" s="106"/>
@@ -8142,7 +8163,7 @@
       <c r="Z64" s="113"/>
       <c r="AA64" s="114"/>
     </row>
-    <row r="65" spans="2:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="107"/>
       <c r="C65" s="106"/>
       <c r="D65" s="106"/>
@@ -8264,26 +8285,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:H22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AL14:AP14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="3.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="28.375" style="2" customWidth="1"/>
-    <col min="17" max="37" width="3.625" style="2" customWidth="1"/>
-    <col min="38" max="39" width="3.875" style="2" customWidth="1"/>
-    <col min="40" max="42" width="3.625" style="2" customWidth="1"/>
-    <col min="43" max="44" width="3.875" style="2" customWidth="1"/>
-    <col min="45" max="47" width="3.625" style="2" customWidth="1"/>
-    <col min="48" max="49" width="3.875" style="2" customWidth="1"/>
-    <col min="50" max="52" width="3.625" style="2" customWidth="1"/>
-    <col min="53" max="54" width="3.875" style="2" customWidth="1"/>
-    <col min="55" max="16384" width="3.625" style="2"/>
+    <col min="1" max="15" width="3.6328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="28.36328125" style="2" customWidth="1"/>
+    <col min="17" max="37" width="3.6328125" style="2" customWidth="1"/>
+    <col min="38" max="39" width="3.90625" style="2" customWidth="1"/>
+    <col min="40" max="41" width="3.6328125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="14.1796875" style="2" customWidth="1"/>
+    <col min="43" max="44" width="3.90625" style="2" customWidth="1"/>
+    <col min="45" max="47" width="3.6328125" style="2" customWidth="1"/>
+    <col min="48" max="49" width="3.90625" style="2" customWidth="1"/>
+    <col min="50" max="52" width="3.6328125" style="2" customWidth="1"/>
+    <col min="53" max="54" width="3.90625" style="2" customWidth="1"/>
+    <col min="55" max="16384" width="3.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:57" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="str">
         <f>表紙!$AD$8</f>
         <v>Office365展開</v>
@@ -8351,7 +8373,7 @@
       <c r="BD1" s="93"/>
       <c r="BE1" s="93"/>
     </row>
-    <row r="2" spans="1:57" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:57" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="93" t="str">
         <f>表紙!$AD$9</f>
         <v>Outlook宛先表示アドイン</v>
@@ -8421,10 +8443,10 @@
       <c r="BD2" s="71"/>
       <c r="BE2" s="72"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="144" t="s">
         <v>9</v>
       </c>
@@ -8503,7 +8525,7 @@
       <c r="BD4" s="127"/>
       <c r="BE4" s="127"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="144" t="s">
         <v>20</v>
       </c>
@@ -8555,20 +8577,28 @@
       <c r="AQ5" s="135"/>
       <c r="AR5" s="135"/>
       <c r="AS5" s="135"/>
-      <c r="AT5" s="137"/>
+      <c r="AT5" s="137" t="s">
+        <v>247</v>
+      </c>
       <c r="AU5" s="137"/>
-      <c r="AV5" s="149"/>
+      <c r="AV5" s="149">
+        <v>43095</v>
+      </c>
       <c r="AW5" s="149"/>
       <c r="AX5" s="149"/>
       <c r="AY5" s="149"/>
-      <c r="AZ5" s="150"/>
+      <c r="AZ5" s="150" t="s">
+        <v>248</v>
+      </c>
       <c r="BA5" s="151"/>
       <c r="BB5" s="152"/>
-      <c r="BC5" s="153"/>
+      <c r="BC5" s="153">
+        <v>2</v>
+      </c>
       <c r="BD5" s="153"/>
       <c r="BE5" s="153"/>
     </row>
-    <row r="6" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="136" t="s">
         <v>23</v>
       </c>
@@ -8633,7 +8663,7 @@
       <c r="BD6" s="153"/>
       <c r="BE6" s="153"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="136"/>
       <c r="B7" s="136"/>
       <c r="C7" s="136"/>
@@ -8694,7 +8724,7 @@
       <c r="BD7" s="153"/>
       <c r="BE7" s="153"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="136"/>
       <c r="B8" s="136"/>
       <c r="C8" s="136"/>
@@ -8755,12 +8785,12 @@
       <c r="BD8" s="153"/>
       <c r="BE8" s="153"/>
     </row>
-    <row r="10" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="160" t="s">
+    <row r="10" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="161" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="161"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="127" t="s">
         <v>168</v>
       </c>
@@ -8776,36 +8806,36 @@
       <c r="K11" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="169"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
       <c r="P11" s="129"/>
       <c r="Q11" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="R11" s="169"/>
-      <c r="S11" s="169"/>
-      <c r="T11" s="169"/>
-      <c r="U11" s="169"/>
-      <c r="V11" s="169"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="169"/>
-      <c r="Y11" s="169"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
+      <c r="U11" s="170"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="170"/>
+      <c r="Y11" s="170"/>
       <c r="Z11" s="129"/>
       <c r="AA11" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="AB11" s="164"/>
-      <c r="AC11" s="164"/>
-      <c r="AD11" s="164"/>
-      <c r="AE11" s="164"/>
-      <c r="AF11" s="164"/>
-      <c r="AG11" s="164"/>
-      <c r="AH11" s="164"/>
-      <c r="AI11" s="164"/>
-      <c r="AJ11" s="164"/>
-      <c r="AK11" s="165"/>
+      <c r="AB11" s="165"/>
+      <c r="AC11" s="165"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="165"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="165"/>
+      <c r="AJ11" s="165"/>
+      <c r="AK11" s="166"/>
       <c r="AL11" s="127" t="s">
         <v>29</v>
       </c>
@@ -8835,9 +8865,9 @@
       <c r="BD11" s="127"/>
       <c r="BE11" s="127"/>
     </row>
-    <row r="12" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="162"/>
-      <c r="B12" s="163"/>
+    <row r="12" spans="1:57" ht="44" x14ac:dyDescent="0.2">
+      <c r="A12" s="163"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="127"/>
       <c r="D12" s="127"/>
       <c r="E12" s="127"/>
@@ -8847,20 +8877,20 @@
       <c r="I12" s="130"/>
       <c r="J12" s="131"/>
       <c r="K12" s="130"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
       <c r="P12" s="131"/>
       <c r="Q12" s="130"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170"/>
-      <c r="U12" s="170"/>
-      <c r="V12" s="170"/>
-      <c r="W12" s="170"/>
-      <c r="X12" s="170"/>
-      <c r="Y12" s="170"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="171"/>
+      <c r="U12" s="171"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="171"/>
       <c r="Z12" s="131"/>
       <c r="AA12" s="154" t="s">
         <v>42</v>
@@ -8870,13 +8900,13 @@
       <c r="AD12" s="155"/>
       <c r="AE12" s="155"/>
       <c r="AF12" s="156"/>
-      <c r="AG12" s="166" t="s">
+      <c r="AG12" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="AH12" s="167"/>
-      <c r="AI12" s="167"/>
-      <c r="AJ12" s="167"/>
-      <c r="AK12" s="168"/>
+      <c r="AH12" s="168"/>
+      <c r="AI12" s="168"/>
+      <c r="AJ12" s="168"/>
+      <c r="AK12" s="169"/>
       <c r="AL12" s="18" t="s">
         <v>21</v>
       </c>
@@ -8922,19 +8952,19 @@
       <c r="BD12" s="127"/>
       <c r="BE12" s="127"/>
     </row>
-    <row r="13" spans="1:57" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:57" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="171" t="s">
+      <c r="C13" s="172" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="174"/>
       <c r="I13" s="122" t="s">
         <v>182</v>
       </c>
@@ -8995,19 +9025,19 @@
       <c r="BD13" s="118"/>
       <c r="BE13" s="118"/>
     </row>
-    <row r="14" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:57" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="122" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="123"/>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="172" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="174"/>
       <c r="I14" s="122" t="s">
         <v>182</v>
       </c>
@@ -9049,9 +9079,9 @@
       <c r="AK14" s="121"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
-      <c r="AN14" s="118"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
+      <c r="AN14" s="160"/>
+      <c r="AO14" s="160"/>
+      <c r="AP14" s="160"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
       <c r="AS14" s="118"/>
@@ -9068,7 +9098,7 @@
       <c r="BD14" s="118"/>
       <c r="BE14" s="118"/>
     </row>
-    <row r="15" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="122" t="s">
         <v>35</v>
       </c>
@@ -9141,7 +9171,7 @@
       <c r="BD15" s="118"/>
       <c r="BE15" s="118"/>
     </row>
-    <row r="16" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="122" t="s">
         <v>36</v>
       </c>
@@ -9214,7 +9244,7 @@
       <c r="BD16" s="118"/>
       <c r="BE16" s="118"/>
     </row>
-    <row r="17" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="122" t="s">
         <v>37</v>
       </c>
@@ -9287,7 +9317,7 @@
       <c r="BD17" s="118"/>
       <c r="BE17" s="118"/>
     </row>
-    <row r="18" spans="1:57" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:57" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="122" t="s">
         <v>38</v>
       </c>
@@ -9360,7 +9390,7 @@
       <c r="BD18" s="118"/>
       <c r="BE18" s="118"/>
     </row>
-    <row r="19" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="122" t="s">
         <v>39</v>
       </c>
@@ -9433,7 +9463,7 @@
       <c r="BD19" s="118"/>
       <c r="BE19" s="118"/>
     </row>
-    <row r="20" spans="1:57" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:57" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="122" t="s">
         <v>40</v>
       </c>
@@ -9506,7 +9536,7 @@
       <c r="BD20" s="118"/>
       <c r="BE20" s="118"/>
     </row>
-    <row r="21" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="122" t="s">
         <v>45</v>
       </c>
@@ -9579,7 +9609,7 @@
       <c r="BD21" s="118"/>
       <c r="BE21" s="118"/>
     </row>
-    <row r="22" spans="1:57" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:57" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122" t="s">
         <v>46</v>
       </c>
@@ -9652,7 +9682,7 @@
       <c r="BD22" s="118"/>
       <c r="BE22" s="118"/>
     </row>
-    <row r="23" spans="1:57" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:57" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="122" t="s">
         <v>47</v>
       </c>
@@ -9723,7 +9753,7 @@
       <c r="BD23" s="118"/>
       <c r="BE23" s="118"/>
     </row>
-    <row r="24" spans="1:57" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:57" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="122" t="s">
         <v>48</v>
       </c>
@@ -9794,7 +9824,7 @@
       <c r="BD24" s="118"/>
       <c r="BE24" s="118"/>
     </row>
-    <row r="25" spans="1:57" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:57" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="122" t="s">
         <v>49</v>
       </c>
@@ -9865,7 +9895,7 @@
       <c r="BD25" s="118"/>
       <c r="BE25" s="118"/>
     </row>
-    <row r="26" spans="1:57" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:57" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="122" t="s">
         <v>50</v>
       </c>
@@ -9936,7 +9966,7 @@
       <c r="BD26" s="118"/>
       <c r="BE26" s="118"/>
     </row>
-    <row r="27" spans="1:57" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:57" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="122" t="s">
         <v>51</v>
       </c>
@@ -10007,7 +10037,7 @@
       <c r="BD27" s="118"/>
       <c r="BE27" s="118"/>
     </row>
-    <row r="28" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="122" t="s">
         <v>52</v>
       </c>
@@ -10078,7 +10108,7 @@
       <c r="BD28" s="118"/>
       <c r="BE28" s="118"/>
     </row>
-    <row r="29" spans="1:57" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:57" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="122" t="s">
         <v>53</v>
       </c>
@@ -10149,7 +10179,7 @@
       <c r="BD29" s="118"/>
       <c r="BE29" s="118"/>
     </row>
-    <row r="30" spans="1:57" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:57" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="122" t="s">
         <v>54</v>
       </c>
@@ -10220,7 +10250,7 @@
       <c r="BD30" s="118"/>
       <c r="BE30" s="118"/>
     </row>
-    <row r="31" spans="1:57" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:57" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="122" t="s">
         <v>229</v>
       </c>
@@ -10442,6 +10472,8 @@
     <mergeCell ref="AN15:AP15"/>
     <mergeCell ref="AG15:AK15"/>
     <mergeCell ref="AA17:AF17"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AS16:AU16"/>
     <mergeCell ref="Q14:Z14"/>
     <mergeCell ref="AL11:AP11"/>
     <mergeCell ref="K23:P23"/>
@@ -10466,8 +10498,6 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:P17"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AS16:AU16"/>
     <mergeCell ref="AX16:AZ16"/>
     <mergeCell ref="AG13:AK13"/>
     <mergeCell ref="AN22:AP22"/>
